--- a/db design.xlsx
+++ b/db design.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="79">
   <si>
     <t>LocationName</t>
   </si>
@@ -107,9 +107,6 @@
     <t>SubmissionID (PK)</t>
   </si>
   <si>
-    <t>DateOfRecording</t>
-  </si>
-  <si>
     <t>DateOfRecovery</t>
   </si>
   <si>
@@ -258,13 +255,19 @@
   </si>
   <si>
     <t>date only</t>
+  </si>
+  <si>
+    <t>StartDateOfRecording</t>
+  </si>
+  <si>
+    <t>EndDateOfRecording</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +349,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -367,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -394,6 +403,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -676,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,16 +705,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -715,13 +727,13 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -729,10 +741,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -740,10 +752,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -751,13 +763,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -765,16 +777,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -782,16 +794,16 @@
         <v>2</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -799,13 +811,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -813,13 +825,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -827,16 +839,16 @@
         <v>5</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -850,108 +862,119 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -959,16 +982,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -976,16 +999,16 @@
         <v>9</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -993,16 +1016,16 @@
         <v>11</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1010,16 +1033,16 @@
         <v>12</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="D25" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1037,13 +1060,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1051,13 +1074,13 @@
         <v>13</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1065,13 +1088,13 @@
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1079,13 +1102,13 @@
         <v>15</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1093,16 +1116,16 @@
         <v>16</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1110,13 +1133,13 @@
         <v>17</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1124,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -1148,137 +1171,164 @@
         <v>26</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="B42" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="D42" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>61</v>
+      <c r="A43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="B45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>51</v>
+        <v>62</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
